--- a/Code/Results/Cases/Case_0_125/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_125/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9735446214542703</v>
+        <v>1.02020935029036</v>
       </c>
       <c r="D2">
-        <v>0.9874799495658055</v>
+        <v>1.028186279667556</v>
       </c>
       <c r="E2">
-        <v>0.9834235466018301</v>
+        <v>1.021220136258265</v>
       </c>
       <c r="F2">
-        <v>0.988468337242465</v>
+        <v>1.035130770811574</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9965464644876817</v>
+        <v>1.025407753437642</v>
       </c>
       <c r="K2">
-        <v>0.999116508965744</v>
+        <v>1.03100382927611</v>
       </c>
       <c r="L2">
-        <v>0.9951187525523231</v>
+        <v>1.024058110239223</v>
       </c>
       <c r="M2">
-        <v>1.000090699106877</v>
+        <v>1.037928256868433</v>
       </c>
       <c r="N2">
-        <v>1.002372208457872</v>
+        <v>1.012452158818634</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9788202229049464</v>
+        <v>1.02132920632262</v>
       </c>
       <c r="D3">
-        <v>0.9920777337129927</v>
+        <v>1.029220324904257</v>
       </c>
       <c r="E3">
-        <v>0.9876816226186593</v>
+        <v>1.02217679549443</v>
       </c>
       <c r="F3">
-        <v>0.9937424874211295</v>
+        <v>1.036329240208038</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.999905408411882</v>
+        <v>1.026163808921131</v>
       </c>
       <c r="K3">
-        <v>1.002812995164702</v>
+        <v>1.031845146685901</v>
       </c>
       <c r="L3">
-        <v>0.9984745841596471</v>
+        <v>1.02482076425516</v>
       </c>
       <c r="M3">
-        <v>1.004456065413565</v>
+        <v>1.038935022641683</v>
       </c>
       <c r="N3">
-        <v>1.003558554998295</v>
+        <v>1.012711453180477</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.982159350371563</v>
+        <v>1.022054374107675</v>
       </c>
       <c r="D4">
-        <v>0.9949942506821626</v>
+        <v>1.02989025789283</v>
       </c>
       <c r="E4">
-        <v>0.9903835016516708</v>
+        <v>1.022796603130266</v>
       </c>
       <c r="F4">
-        <v>0.997088473632474</v>
+        <v>1.037105892393236</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.002030699970783</v>
+        <v>1.026653067329834</v>
       </c>
       <c r="K4">
-        <v>1.005153468517406</v>
+        <v>1.032389772332395</v>
       </c>
       <c r="L4">
-        <v>1.000599391914976</v>
+        <v>1.025314422923699</v>
       </c>
       <c r="M4">
-        <v>1.007222165695099</v>
+        <v>1.039587063615902</v>
       </c>
       <c r="N4">
-        <v>1.004308015316331</v>
+        <v>1.012879013867214</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9835460396878463</v>
+        <v>1.022359366053031</v>
       </c>
       <c r="D5">
-        <v>0.9962069182345046</v>
+        <v>1.03017209807532</v>
       </c>
       <c r="E5">
-        <v>0.9915071117202449</v>
+        <v>1.023057358075439</v>
       </c>
       <c r="F5">
-        <v>0.9984798393107772</v>
+        <v>1.037432675626427</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.002913087237574</v>
+        <v>1.026858761222235</v>
       </c>
       <c r="K5">
-        <v>1.006125583492017</v>
+        <v>1.032618789809561</v>
       </c>
       <c r="L5">
-        <v>1.001481926827066</v>
+        <v>1.02552199781915</v>
       </c>
       <c r="M5">
-        <v>1.008371584255836</v>
+        <v>1.03986132463169</v>
       </c>
       <c r="N5">
-        <v>1.004618884358318</v>
+        <v>1.012949403544407</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9837778907679595</v>
+        <v>1.022410583268608</v>
       </c>
       <c r="D6">
-        <v>0.9964097588753094</v>
+        <v>1.030219432033327</v>
       </c>
       <c r="E6">
-        <v>0.9916950664405153</v>
+        <v>1.023101150987446</v>
       </c>
       <c r="F6">
-        <v>0.9987125786659744</v>
+        <v>1.037487560321049</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.003060606407633</v>
+        <v>1.026893298700969</v>
       </c>
       <c r="K6">
-        <v>1.006288126341671</v>
+        <v>1.032657246189083</v>
       </c>
       <c r="L6">
-        <v>1.001629490948561</v>
+        <v>1.025556852948643</v>
       </c>
       <c r="M6">
-        <v>1.008563804089365</v>
+        <v>1.039907382655752</v>
       </c>
       <c r="N6">
-        <v>1.00467083829684</v>
+        <v>1.012961219178527</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9821779455146263</v>
+        <v>1.022058448907758</v>
       </c>
       <c r="D7">
-        <v>0.9950105064532676</v>
+        <v>1.029894023067784</v>
       </c>
       <c r="E7">
-        <v>0.9903985628905236</v>
+        <v>1.022800086612803</v>
       </c>
       <c r="F7">
-        <v>0.9971071243098403</v>
+        <v>1.037110257791373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.002042533457592</v>
+        <v>1.026655815783625</v>
       </c>
       <c r="K7">
-        <v>1.005166503787479</v>
+        <v>1.032392832251587</v>
       </c>
       <c r="L7">
-        <v>1.00061122601467</v>
+        <v>1.025317196389368</v>
       </c>
       <c r="M7">
-        <v>1.007237576394114</v>
+        <v>1.039590727742831</v>
       </c>
       <c r="N7">
-        <v>1.004312185491038</v>
+        <v>1.012879954625311</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9753434446742337</v>
+        <v>1.020587698224991</v>
       </c>
       <c r="D8">
-        <v>0.9890462781381785</v>
+        <v>1.028535566922472</v>
       </c>
       <c r="E8">
-        <v>0.9848739584483246</v>
+        <v>1.02154328106708</v>
       </c>
       <c r="F8">
-        <v>0.9902650091538059</v>
+        <v>1.035535558714177</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9976918863760611</v>
+        <v>1.02566325770935</v>
       </c>
       <c r="K8">
-        <v>1.00037669774252</v>
+        <v>1.031288107421598</v>
       </c>
       <c r="L8">
-        <v>0.9962627962640933</v>
+        <v>1.024315817406213</v>
       </c>
       <c r="M8">
-        <v>1.001578482040074</v>
+        <v>1.03826837478237</v>
       </c>
       <c r="N8">
-        <v>1.00277699799884</v>
+        <v>1.012539834050499</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9626924558234529</v>
+        <v>1.018000199174955</v>
       </c>
       <c r="D9">
-        <v>0.9780601020365118</v>
+        <v>1.026148197175385</v>
       </c>
       <c r="E9">
-        <v>0.9747051310544114</v>
+        <v>1.019334648703178</v>
       </c>
       <c r="F9">
-        <v>0.9776639556473277</v>
+        <v>1.032769622552556</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9896350969595028</v>
+        <v>1.023914545290447</v>
       </c>
       <c r="K9">
-        <v>0.991519459579647</v>
+        <v>1.029343251318956</v>
       </c>
       <c r="L9">
-        <v>0.9882223796535304</v>
+        <v>1.022552566921314</v>
       </c>
       <c r="M9">
-        <v>0.9911301220727594</v>
+        <v>1.035942774372515</v>
       </c>
       <c r="N9">
-        <v>0.9999253346224947</v>
+        <v>1.01193881860297</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9537941700790296</v>
+        <v>1.016277946400031</v>
       </c>
       <c r="D10">
-        <v>0.9703735135185177</v>
+        <v>1.024560915205688</v>
       </c>
       <c r="E10">
-        <v>0.9675967347950296</v>
+        <v>1.017866280673537</v>
       </c>
       <c r="F10">
-        <v>0.9688471708311364</v>
+        <v>1.030931612079898</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9839690402905955</v>
+        <v>1.022748931942025</v>
       </c>
       <c r="K10">
-        <v>0.9852991108448331</v>
+        <v>1.02804788840283</v>
       </c>
       <c r="L10">
-        <v>0.9825767690028784</v>
+        <v>1.021377945132637</v>
       </c>
       <c r="M10">
-        <v>0.9838026403944827</v>
+        <v>1.034395417686236</v>
       </c>
       <c r="N10">
-        <v>0.9979149010947286</v>
+        <v>1.011537020073727</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9498171955291403</v>
+        <v>1.015532832793117</v>
       </c>
       <c r="D11">
-        <v>0.9669487733868498</v>
+        <v>1.023874621531023</v>
       </c>
       <c r="E11">
-        <v>0.9644313995220541</v>
+        <v>1.017231423147907</v>
       </c>
       <c r="F11">
-        <v>0.9649183551573527</v>
+        <v>1.030137137101096</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9814376410504244</v>
+        <v>1.022244252338499</v>
       </c>
       <c r="K11">
-        <v>0.9825221151708429</v>
+        <v>1.027487265712157</v>
       </c>
       <c r="L11">
-        <v>0.980056775151523</v>
+        <v>1.020869528558607</v>
       </c>
       <c r="M11">
-        <v>0.9805336374954992</v>
+        <v>1.033726112216235</v>
       </c>
       <c r="N11">
-        <v>0.9970157514527991</v>
+        <v>1.011362772239941</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9483200516702733</v>
+        <v>1.015256158558723</v>
       </c>
       <c r="D12">
-        <v>0.9656612181861649</v>
+        <v>1.02361985292866</v>
       </c>
       <c r="E12">
-        <v>0.9632416654018288</v>
+        <v>1.016995752314614</v>
       </c>
       <c r="F12">
-        <v>0.9634411707859427</v>
+        <v>1.029842242742463</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9804849053455045</v>
+        <v>1.022056797388697</v>
       </c>
       <c r="K12">
-        <v>0.9814772515407241</v>
+        <v>1.02727906693356</v>
       </c>
       <c r="L12">
-        <v>0.9791086872174236</v>
+        <v>1.020680710271986</v>
       </c>
       <c r="M12">
-        <v>0.9793039755001763</v>
+        <v>1.033477608559682</v>
       </c>
       <c r="N12">
-        <v>0.9966772166563751</v>
+        <v>1.011298008889888</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9486421175089639</v>
+        <v>1.015315501877299</v>
       </c>
       <c r="D13">
-        <v>0.9659381189917343</v>
+        <v>1.023674494811127</v>
       </c>
       <c r="E13">
-        <v>0.9634975150488447</v>
+        <v>1.017046298014399</v>
       </c>
       <c r="F13">
-        <v>0.963758859148228</v>
+        <v>1.029905489135307</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9806898470168968</v>
+        <v>1.022097006866215</v>
       </c>
       <c r="K13">
-        <v>0.9817019968801605</v>
+        <v>1.027323724407619</v>
       </c>
       <c r="L13">
-        <v>0.9793126128348159</v>
+        <v>1.020721211068086</v>
       </c>
       <c r="M13">
-        <v>0.9795684558107357</v>
+        <v>1.033530908639986</v>
       </c>
       <c r="N13">
-        <v>0.9967500437080791</v>
+        <v>1.011311902654673</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9496938553740533</v>
+        <v>1.015509960899997</v>
       </c>
       <c r="D14">
-        <v>0.9668426648447682</v>
+        <v>1.023853559191552</v>
       </c>
       <c r="E14">
-        <v>0.9643333463250152</v>
+        <v>1.017211939595774</v>
       </c>
       <c r="F14">
-        <v>0.9647966217595532</v>
+        <v>1.030112756781235</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9813591463840687</v>
+        <v>1.022228757142771</v>
       </c>
       <c r="K14">
-        <v>0.9824360239771659</v>
+        <v>1.027470055092403</v>
       </c>
       <c r="L14">
-        <v>0.9799786561095142</v>
+        <v>1.020853920163529</v>
       </c>
       <c r="M14">
-        <v>0.9804323134429953</v>
+        <v>1.033705568662979</v>
       </c>
       <c r="N14">
-        <v>0.9969878624185919</v>
+        <v>1.011357419695646</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9503391857329819</v>
+        <v>1.015629785966006</v>
       </c>
       <c r="D15">
-        <v>0.9673979071061815</v>
+        <v>1.023963906722703</v>
       </c>
       <c r="E15">
-        <v>0.9648464489938799</v>
+        <v>1.017314015857491</v>
       </c>
       <c r="F15">
-        <v>0.9654336203221541</v>
+        <v>1.030240488896373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9817698490877282</v>
+        <v>1.022309933560282</v>
       </c>
       <c r="K15">
-        <v>0.9828864859981173</v>
+        <v>1.027560219740043</v>
       </c>
       <c r="L15">
-        <v>0.9803874080110355</v>
+        <v>1.020935690623516</v>
       </c>
       <c r="M15">
-        <v>0.9809624926491807</v>
+        <v>1.033813196524736</v>
       </c>
       <c r="N15">
-        <v>0.9971337795098898</v>
+        <v>1.011385458955995</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9540553891308837</v>
+        <v>1.016327410391851</v>
       </c>
       <c r="D16">
-        <v>0.9705986901774236</v>
+        <v>1.02460648350824</v>
       </c>
       <c r="E16">
-        <v>0.9678048951346623</v>
+        <v>1.017908434205112</v>
       </c>
       <c r="F16">
-        <v>0.9691054762905534</v>
+        <v>1.030984368116399</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9841353359274942</v>
+        <v>1.022782426655572</v>
       </c>
       <c r="K16">
-        <v>0.9854815829495317</v>
+        <v>1.02808510091451</v>
       </c>
       <c r="L16">
-        <v>0.9827423637868729</v>
+        <v>1.021411691318446</v>
       </c>
       <c r="M16">
-        <v>0.9840174871557807</v>
+        <v>1.034439852205829</v>
       </c>
       <c r="N16">
-        <v>0.9979739507925511</v>
+        <v>1.011548578722275</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.956352398717247</v>
+        <v>1.016765180585314</v>
       </c>
       <c r="D17">
-        <v>0.9725799878846494</v>
+        <v>1.025009825113517</v>
       </c>
       <c r="E17">
-        <v>0.9696366756965951</v>
+        <v>1.018281552923018</v>
       </c>
       <c r="F17">
-        <v>0.9713782059169697</v>
+        <v>1.031451357092458</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9855977623508418</v>
+        <v>1.02307881924232</v>
       </c>
       <c r="K17">
-        <v>0.9870864994095543</v>
+        <v>1.028414419212292</v>
       </c>
       <c r="L17">
-        <v>0.9841988864296919</v>
+        <v>1.021710328067462</v>
       </c>
       <c r="M17">
-        <v>0.9859074066603486</v>
+        <v>1.034833126539842</v>
       </c>
       <c r="N17">
-        <v>0.9984931354001365</v>
+        <v>1.011650828170646</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.957680338637055</v>
+        <v>1.017020585694692</v>
       </c>
       <c r="D18">
-        <v>0.9737264142511373</v>
+        <v>1.025245184907689</v>
       </c>
       <c r="E18">
-        <v>0.9706967560552856</v>
+        <v>1.018499278954748</v>
       </c>
       <c r="F18">
-        <v>0.9726932153062606</v>
+        <v>1.031723878568846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9864433028242076</v>
+        <v>1.023251703773305</v>
       </c>
       <c r="K18">
-        <v>0.9880146176564121</v>
+        <v>1.028606531847662</v>
       </c>
       <c r="L18">
-        <v>0.9850412275426645</v>
+        <v>1.021884537369873</v>
       </c>
       <c r="M18">
-        <v>0.987000556353032</v>
+        <v>1.035062585361173</v>
       </c>
       <c r="N18">
-        <v>0.9987932237507069</v>
+        <v>1.01171044283295</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9581311565083922</v>
+        <v>1.017107682641319</v>
       </c>
       <c r="D19">
-        <v>0.9741157784592436</v>
+        <v>1.02532545305531</v>
       </c>
       <c r="E19">
-        <v>0.9710568220756433</v>
+        <v>1.018573533544294</v>
       </c>
       <c r="F19">
-        <v>0.9731398291459723</v>
+        <v>1.031816824218712</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9867303652674502</v>
+        <v>1.023310653575343</v>
       </c>
       <c r="K19">
-        <v>0.9883297482129302</v>
+        <v>1.028672041854562</v>
       </c>
       <c r="L19">
-        <v>0.9853272397091443</v>
+        <v>1.021943941558649</v>
       </c>
       <c r="M19">
-        <v>0.9873717581640216</v>
+        <v>1.035140836533131</v>
       </c>
       <c r="N19">
-        <v>0.9988950880988405</v>
+        <v>1.011730765528751</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.956107187777792</v>
+        <v>1.016718205667346</v>
       </c>
       <c r="D20">
-        <v>0.9723683749668445</v>
+        <v>1.02496654029778</v>
       </c>
       <c r="E20">
-        <v>0.9694410143534818</v>
+        <v>1.018241511279631</v>
       </c>
       <c r="F20">
-        <v>0.9711354716524413</v>
+        <v>1.03140123966609</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9854416355078348</v>
+        <v>1.023047018736897</v>
       </c>
       <c r="K20">
-        <v>0.986915140437063</v>
+        <v>1.028379083701165</v>
       </c>
       <c r="L20">
-        <v>0.9840433675538244</v>
+        <v>1.021678285150477</v>
       </c>
       <c r="M20">
-        <v>0.9857055953465482</v>
+        <v>1.034790924838147</v>
       </c>
       <c r="N20">
-        <v>0.9984377172982771</v>
+        <v>1.011639860431314</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9493847056070747</v>
+        <v>1.015452694973948</v>
       </c>
       <c r="D21">
-        <v>0.9665767334665981</v>
+        <v>1.023800825016871</v>
       </c>
       <c r="E21">
-        <v>0.9640876082771818</v>
+        <v>1.017163158317031</v>
       </c>
       <c r="F21">
-        <v>0.9644915290017582</v>
+        <v>1.03005171586077</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9811624047314862</v>
+        <v>1.022189959819832</v>
       </c>
       <c r="K21">
-        <v>0.9822202470701321</v>
+        <v>1.027426963211209</v>
       </c>
       <c r="L21">
-        <v>0.9797828617027606</v>
+        <v>1.020814839808249</v>
       </c>
       <c r="M21">
-        <v>0.9801783624024616</v>
+        <v>1.033654132711969</v>
       </c>
       <c r="N21">
-        <v>0.996917958477435</v>
+        <v>1.011344017163625</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9450420451654921</v>
+        <v>1.014657562323476</v>
       </c>
       <c r="D22">
-        <v>0.9628453420562841</v>
+        <v>1.023068769509993</v>
       </c>
       <c r="E22">
-        <v>0.9606402987854512</v>
+        <v>1.016485985348941</v>
       </c>
       <c r="F22">
-        <v>0.9602103119055568</v>
+        <v>1.029204425698047</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.97839936615493</v>
+        <v>1.021651124695448</v>
       </c>
       <c r="K22">
-        <v>0.9791906081511657</v>
+        <v>1.026828566936166</v>
       </c>
       <c r="L22">
-        <v>0.9770339918731331</v>
+        <v>1.020272132494018</v>
       </c>
       <c r="M22">
-        <v>0.9766134828012203</v>
+        <v>1.032940000555417</v>
       </c>
       <c r="N22">
-        <v>0.9959359571153867</v>
+        <v>1.011157777683048</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9473556271784234</v>
+        <v>1.015079025937757</v>
       </c>
       <c r="D23">
-        <v>0.964832296614441</v>
+        <v>1.02345676305327</v>
       </c>
       <c r="E23">
-        <v>0.9624758074414903</v>
+        <v>1.01684488885698</v>
       </c>
       <c r="F23">
-        <v>0.9624901282506708</v>
+        <v>1.029653475863673</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9798712461005091</v>
+        <v>1.021936768466199</v>
       </c>
       <c r="K23">
-        <v>0.9808043388524866</v>
+        <v>1.027145765510301</v>
       </c>
       <c r="L23">
-        <v>0.9784981235371295</v>
+        <v>1.020559815364791</v>
       </c>
       <c r="M23">
-        <v>0.9785121378374959</v>
+        <v>1.033318517473021</v>
       </c>
       <c r="N23">
-        <v>0.9964591330809281</v>
+        <v>1.011256528631875</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9562180246232249</v>
+        <v>1.016739431421465</v>
       </c>
       <c r="D24">
-        <v>0.9724640221911028</v>
+        <v>1.024986098541521</v>
       </c>
       <c r="E24">
-        <v>0.9695294510832309</v>
+        <v>1.018259604089706</v>
       </c>
       <c r="F24">
-        <v>0.9712451855996264</v>
+        <v>1.031423885157302</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9855122055314852</v>
+        <v>1.023061388004713</v>
       </c>
       <c r="K24">
-        <v>0.9869925948507329</v>
+        <v>1.028395050214526</v>
       </c>
       <c r="L24">
-        <v>0.9841136621107069</v>
+        <v>1.021692763904883</v>
       </c>
       <c r="M24">
-        <v>0.9857968135783315</v>
+        <v>1.034809993758544</v>
       </c>
       <c r="N24">
-        <v>0.9984627668121149</v>
+        <v>1.01164481636003</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9660405238700758</v>
+        <v>1.018668642350705</v>
       </c>
       <c r="D25">
-        <v>0.9809608956940084</v>
+        <v>1.026764631418412</v>
       </c>
       <c r="E25">
-        <v>0.9773891125394338</v>
+        <v>1.019904919118999</v>
       </c>
       <c r="F25">
-        <v>0.9809910620619158</v>
+        <v>1.033483633225869</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9917674159135286</v>
+        <v>1.02436659444327</v>
       </c>
       <c r="K25">
-        <v>0.9938621390658107</v>
+        <v>1.029845829691816</v>
       </c>
       <c r="L25">
-        <v>0.9903488768430055</v>
+        <v>1.023008254574207</v>
       </c>
       <c r="M25">
-        <v>0.9938918135127979</v>
+        <v>1.036543460030293</v>
       </c>
       <c r="N25">
-        <v>1.000680980906285</v>
+        <v>1.012094393749036</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_125/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_125/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.02020935029036</v>
+        <v>0.9735446214542715</v>
       </c>
       <c r="D2">
-        <v>1.028186279667556</v>
+        <v>0.9874799495658068</v>
       </c>
       <c r="E2">
-        <v>1.021220136258265</v>
+        <v>0.9834235466018308</v>
       </c>
       <c r="F2">
-        <v>1.035130770811574</v>
+        <v>0.9884683372424665</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.025407753437642</v>
+        <v>0.9965464644876828</v>
       </c>
       <c r="K2">
-        <v>1.03100382927611</v>
+        <v>0.9991165089657451</v>
       </c>
       <c r="L2">
-        <v>1.024058110239223</v>
+        <v>0.995118752552324</v>
       </c>
       <c r="M2">
-        <v>1.037928256868433</v>
+        <v>1.000090699106878</v>
       </c>
       <c r="N2">
-        <v>1.012452158818634</v>
+        <v>1.002372208457872</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.02132920632262</v>
+        <v>0.9788202229049467</v>
       </c>
       <c r="D3">
-        <v>1.029220324904257</v>
+        <v>0.992077733712993</v>
       </c>
       <c r="E3">
-        <v>1.02217679549443</v>
+        <v>0.9876816226186594</v>
       </c>
       <c r="F3">
-        <v>1.036329240208038</v>
+        <v>0.9937424874211298</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.026163808921131</v>
+        <v>0.9999054084118822</v>
       </c>
       <c r="K3">
-        <v>1.031845146685901</v>
+        <v>1.002812995164703</v>
       </c>
       <c r="L3">
-        <v>1.02482076425516</v>
+        <v>0.9984745841596472</v>
       </c>
       <c r="M3">
-        <v>1.038935022641683</v>
+        <v>1.004456065413565</v>
       </c>
       <c r="N3">
-        <v>1.012711453180477</v>
+        <v>1.003558554998295</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.022054374107675</v>
+        <v>0.982159350371563</v>
       </c>
       <c r="D4">
-        <v>1.02989025789283</v>
+        <v>0.994994250682163</v>
       </c>
       <c r="E4">
-        <v>1.022796603130266</v>
+        <v>0.9903835016516706</v>
       </c>
       <c r="F4">
-        <v>1.037105892393236</v>
+        <v>0.9970884736324741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.026653067329834</v>
+        <v>1.002030699970784</v>
       </c>
       <c r="K4">
-        <v>1.032389772332395</v>
+        <v>1.005153468517406</v>
       </c>
       <c r="L4">
-        <v>1.025314422923699</v>
+        <v>1.000599391914976</v>
       </c>
       <c r="M4">
-        <v>1.039587063615902</v>
+        <v>1.007222165695099</v>
       </c>
       <c r="N4">
-        <v>1.012879013867214</v>
+        <v>1.004308015316331</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.022359366053031</v>
+        <v>0.9835460396878458</v>
       </c>
       <c r="D5">
-        <v>1.03017209807532</v>
+        <v>0.9962069182345041</v>
       </c>
       <c r="E5">
-        <v>1.023057358075439</v>
+        <v>0.9915071117202443</v>
       </c>
       <c r="F5">
-        <v>1.037432675626427</v>
+        <v>0.9984798393107767</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.026858761222235</v>
+        <v>1.002913087237574</v>
       </c>
       <c r="K5">
-        <v>1.032618789809561</v>
+        <v>1.006125583492017</v>
       </c>
       <c r="L5">
-        <v>1.02552199781915</v>
+        <v>1.001481926827065</v>
       </c>
       <c r="M5">
-        <v>1.03986132463169</v>
+        <v>1.008371584255836</v>
       </c>
       <c r="N5">
-        <v>1.012949403544407</v>
+        <v>1.004618884358318</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.022410583268608</v>
+        <v>0.9837778907679599</v>
       </c>
       <c r="D6">
-        <v>1.030219432033327</v>
+        <v>0.9964097588753098</v>
       </c>
       <c r="E6">
-        <v>1.023101150987446</v>
+        <v>0.9916950664405155</v>
       </c>
       <c r="F6">
-        <v>1.037487560321049</v>
+        <v>0.998712578665975</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.026893298700969</v>
+        <v>1.003060606407634</v>
       </c>
       <c r="K6">
-        <v>1.032657246189083</v>
+        <v>1.006288126341671</v>
       </c>
       <c r="L6">
-        <v>1.025556852948643</v>
+        <v>1.001629490948561</v>
       </c>
       <c r="M6">
-        <v>1.039907382655752</v>
+        <v>1.008563804089365</v>
       </c>
       <c r="N6">
-        <v>1.012961219178527</v>
+        <v>1.00467083829684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.022058448907758</v>
+        <v>0.982177945514626</v>
       </c>
       <c r="D7">
-        <v>1.029894023067784</v>
+        <v>0.9950105064532674</v>
       </c>
       <c r="E7">
-        <v>1.022800086612803</v>
+        <v>0.9903985628905232</v>
       </c>
       <c r="F7">
-        <v>1.037110257791373</v>
+        <v>0.9971071243098395</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.026655815783625</v>
+        <v>1.002042533457592</v>
       </c>
       <c r="K7">
-        <v>1.032392832251587</v>
+        <v>1.005166503787479</v>
       </c>
       <c r="L7">
-        <v>1.025317196389368</v>
+        <v>1.00061122601467</v>
       </c>
       <c r="M7">
-        <v>1.039590727742831</v>
+        <v>1.007237576394114</v>
       </c>
       <c r="N7">
-        <v>1.012879954625311</v>
+        <v>1.004312185491037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.020587698224991</v>
+        <v>0.9753434446742335</v>
       </c>
       <c r="D8">
-        <v>1.028535566922472</v>
+        <v>0.9890462781381784</v>
       </c>
       <c r="E8">
-        <v>1.02154328106708</v>
+        <v>0.9848739584483246</v>
       </c>
       <c r="F8">
-        <v>1.035535558714177</v>
+        <v>0.9902650091538058</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.02566325770935</v>
+        <v>0.9976918863760611</v>
       </c>
       <c r="K8">
-        <v>1.031288107421598</v>
+        <v>1.00037669774252</v>
       </c>
       <c r="L8">
-        <v>1.024315817406213</v>
+        <v>0.9962627962640933</v>
       </c>
       <c r="M8">
-        <v>1.03826837478237</v>
+        <v>1.001578482040074</v>
       </c>
       <c r="N8">
-        <v>1.012539834050499</v>
+        <v>1.00277699799884</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.018000199174955</v>
+        <v>0.962692455823453</v>
       </c>
       <c r="D9">
-        <v>1.026148197175385</v>
+        <v>0.9780601020365121</v>
       </c>
       <c r="E9">
-        <v>1.019334648703178</v>
+        <v>0.9747051310544115</v>
       </c>
       <c r="F9">
-        <v>1.032769622552556</v>
+        <v>0.9776639556473276</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.023914545290447</v>
+        <v>0.989635096959503</v>
       </c>
       <c r="K9">
-        <v>1.029343251318956</v>
+        <v>0.9915194595796472</v>
       </c>
       <c r="L9">
-        <v>1.022552566921314</v>
+        <v>0.9882223796535305</v>
       </c>
       <c r="M9">
-        <v>1.035942774372515</v>
+        <v>0.9911301220727593</v>
       </c>
       <c r="N9">
-        <v>1.01193881860297</v>
+        <v>0.9999253346224946</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.016277946400031</v>
+        <v>0.9537941700790292</v>
       </c>
       <c r="D10">
-        <v>1.024560915205688</v>
+        <v>0.9703735135185175</v>
       </c>
       <c r="E10">
-        <v>1.017866280673537</v>
+        <v>0.9675967347950294</v>
       </c>
       <c r="F10">
-        <v>1.030931612079898</v>
+        <v>0.9688471708311361</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.022748931942025</v>
+        <v>0.9839690402905953</v>
       </c>
       <c r="K10">
-        <v>1.02804788840283</v>
+        <v>0.9852991108448327</v>
       </c>
       <c r="L10">
-        <v>1.021377945132637</v>
+        <v>0.9825767690028782</v>
       </c>
       <c r="M10">
-        <v>1.034395417686236</v>
+        <v>0.9838026403944823</v>
       </c>
       <c r="N10">
-        <v>1.011537020073727</v>
+        <v>0.9979149010947284</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.015532832793117</v>
+        <v>0.9498171955291403</v>
       </c>
       <c r="D11">
-        <v>1.023874621531023</v>
+        <v>0.9669487733868498</v>
       </c>
       <c r="E11">
-        <v>1.017231423147907</v>
+        <v>0.964431399522054</v>
       </c>
       <c r="F11">
-        <v>1.030137137101096</v>
+        <v>0.9649183551573529</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.022244252338499</v>
+        <v>0.9814376410504246</v>
       </c>
       <c r="K11">
-        <v>1.027487265712157</v>
+        <v>0.9825221151708429</v>
       </c>
       <c r="L11">
-        <v>1.020869528558607</v>
+        <v>0.9800567751515228</v>
       </c>
       <c r="M11">
-        <v>1.033726112216235</v>
+        <v>0.980533637495499</v>
       </c>
       <c r="N11">
-        <v>1.011362772239941</v>
+        <v>0.9970157514527992</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.015256158558723</v>
+        <v>0.9483200516702742</v>
       </c>
       <c r="D12">
-        <v>1.02361985292866</v>
+        <v>0.9656612181861663</v>
       </c>
       <c r="E12">
-        <v>1.016995752314614</v>
+        <v>0.9632416654018298</v>
       </c>
       <c r="F12">
-        <v>1.029842242742463</v>
+        <v>0.963441170785944</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.022056797388697</v>
+        <v>0.9804849053455056</v>
       </c>
       <c r="K12">
-        <v>1.02727906693356</v>
+        <v>0.9814772515407252</v>
       </c>
       <c r="L12">
-        <v>1.020680710271986</v>
+        <v>0.9791086872174243</v>
       </c>
       <c r="M12">
-        <v>1.033477608559682</v>
+        <v>0.9793039755001778</v>
       </c>
       <c r="N12">
-        <v>1.011298008889888</v>
+        <v>0.9966772166563754</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.015315501877299</v>
+        <v>0.9486421175089632</v>
       </c>
       <c r="D13">
-        <v>1.023674494811127</v>
+        <v>0.9659381189917339</v>
       </c>
       <c r="E13">
-        <v>1.017046298014399</v>
+        <v>0.963497515048844</v>
       </c>
       <c r="F13">
-        <v>1.029905489135307</v>
+        <v>0.9637588591482276</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.022097006866215</v>
+        <v>0.9806898470168962</v>
       </c>
       <c r="K13">
-        <v>1.027323724407619</v>
+        <v>0.9817019968801599</v>
       </c>
       <c r="L13">
-        <v>1.020721211068086</v>
+        <v>0.9793126128348153</v>
       </c>
       <c r="M13">
-        <v>1.033530908639986</v>
+        <v>0.979568455810735</v>
       </c>
       <c r="N13">
-        <v>1.011311902654673</v>
+        <v>0.996750043708079</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.015509960899997</v>
+        <v>0.9496938553740525</v>
       </c>
       <c r="D14">
-        <v>1.023853559191552</v>
+        <v>0.9668426648447671</v>
       </c>
       <c r="E14">
-        <v>1.017211939595774</v>
+        <v>0.9643333463250144</v>
       </c>
       <c r="F14">
-        <v>1.030112756781235</v>
+        <v>0.9647966217595517</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.022228757142771</v>
+        <v>0.981359146384068</v>
       </c>
       <c r="K14">
-        <v>1.027470055092403</v>
+        <v>0.9824360239771649</v>
       </c>
       <c r="L14">
-        <v>1.020853920163529</v>
+        <v>0.9799786561095135</v>
       </c>
       <c r="M14">
-        <v>1.033705568662979</v>
+        <v>0.9804323134429942</v>
       </c>
       <c r="N14">
-        <v>1.011357419695646</v>
+        <v>0.9969878624185916</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.015629785966006</v>
+        <v>0.9503391857329819</v>
       </c>
       <c r="D15">
-        <v>1.023963906722703</v>
+        <v>0.9673979071061817</v>
       </c>
       <c r="E15">
-        <v>1.017314015857491</v>
+        <v>0.9648464489938796</v>
       </c>
       <c r="F15">
-        <v>1.030240488896373</v>
+        <v>0.9654336203221542</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.022309933560282</v>
+        <v>0.9817698490877282</v>
       </c>
       <c r="K15">
-        <v>1.027560219740043</v>
+        <v>0.9828864859981176</v>
       </c>
       <c r="L15">
-        <v>1.020935690623516</v>
+        <v>0.9803874080110353</v>
       </c>
       <c r="M15">
-        <v>1.033813196524736</v>
+        <v>0.9809624926491808</v>
       </c>
       <c r="N15">
-        <v>1.011385458955995</v>
+        <v>0.99713377950989</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.016327410391851</v>
+        <v>0.9540553891308837</v>
       </c>
       <c r="D16">
-        <v>1.02460648350824</v>
+        <v>0.9705986901774235</v>
       </c>
       <c r="E16">
-        <v>1.017908434205112</v>
+        <v>0.9678048951346623</v>
       </c>
       <c r="F16">
-        <v>1.030984368116399</v>
+        <v>0.9691054762905537</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.022782426655572</v>
+        <v>0.9841353359274944</v>
       </c>
       <c r="K16">
-        <v>1.02808510091451</v>
+        <v>0.9854815829495318</v>
       </c>
       <c r="L16">
-        <v>1.021411691318446</v>
+        <v>0.9827423637868729</v>
       </c>
       <c r="M16">
-        <v>1.034439852205829</v>
+        <v>0.984017487155781</v>
       </c>
       <c r="N16">
-        <v>1.011548578722275</v>
+        <v>0.997973950792551</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.016765180585314</v>
+        <v>0.9563523987172466</v>
       </c>
       <c r="D17">
-        <v>1.025009825113517</v>
+        <v>0.9725799878846491</v>
       </c>
       <c r="E17">
-        <v>1.018281552923018</v>
+        <v>0.9696366756965944</v>
       </c>
       <c r="F17">
-        <v>1.031451357092458</v>
+        <v>0.9713782059169692</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.02307881924232</v>
+        <v>0.9855977623508414</v>
       </c>
       <c r="K17">
-        <v>1.028414419212292</v>
+        <v>0.987086499409554</v>
       </c>
       <c r="L17">
-        <v>1.021710328067462</v>
+        <v>0.9841988864296911</v>
       </c>
       <c r="M17">
-        <v>1.034833126539842</v>
+        <v>0.9859074066603483</v>
       </c>
       <c r="N17">
-        <v>1.011650828170646</v>
+        <v>0.9984931354001364</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.017020585694692</v>
+        <v>0.9576803386370545</v>
       </c>
       <c r="D18">
-        <v>1.025245184907689</v>
+        <v>0.9737264142511372</v>
       </c>
       <c r="E18">
-        <v>1.018499278954748</v>
+        <v>0.9706967560552848</v>
       </c>
       <c r="F18">
-        <v>1.031723878568846</v>
+        <v>0.9726932153062605</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.023251703773305</v>
+        <v>0.9864433028242072</v>
       </c>
       <c r="K18">
-        <v>1.028606531847662</v>
+        <v>0.9880146176564119</v>
       </c>
       <c r="L18">
-        <v>1.021884537369873</v>
+        <v>0.9850412275426639</v>
       </c>
       <c r="M18">
-        <v>1.035062585361173</v>
+        <v>0.987000556353032</v>
       </c>
       <c r="N18">
-        <v>1.01171044283295</v>
+        <v>0.9987932237507069</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.017107682641319</v>
+        <v>0.9581311565083931</v>
       </c>
       <c r="D19">
-        <v>1.02532545305531</v>
+        <v>0.974115778459244</v>
       </c>
       <c r="E19">
-        <v>1.018573533544294</v>
+        <v>0.9710568220756436</v>
       </c>
       <c r="F19">
-        <v>1.031816824218712</v>
+        <v>0.973139829145973</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.023310653575343</v>
+        <v>0.9867303652674506</v>
       </c>
       <c r="K19">
-        <v>1.028672041854562</v>
+        <v>0.9883297482129306</v>
       </c>
       <c r="L19">
-        <v>1.021943941558649</v>
+        <v>0.9853272397091447</v>
       </c>
       <c r="M19">
-        <v>1.035140836533131</v>
+        <v>0.9873717581640222</v>
       </c>
       <c r="N19">
-        <v>1.011730765528751</v>
+        <v>0.9988950880988406</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.016718205667346</v>
+        <v>0.9561071877777915</v>
       </c>
       <c r="D20">
-        <v>1.02496654029778</v>
+        <v>0.9723683749668438</v>
       </c>
       <c r="E20">
-        <v>1.018241511279631</v>
+        <v>0.969441014353481</v>
       </c>
       <c r="F20">
-        <v>1.03140123966609</v>
+        <v>0.9711354716524407</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.023047018736897</v>
+        <v>0.9854416355078343</v>
       </c>
       <c r="K20">
-        <v>1.028379083701165</v>
+        <v>0.9869151404370624</v>
       </c>
       <c r="L20">
-        <v>1.021678285150477</v>
+        <v>0.9840433675538236</v>
       </c>
       <c r="M20">
-        <v>1.034790924838147</v>
+        <v>0.9857055953465477</v>
       </c>
       <c r="N20">
-        <v>1.011639860431314</v>
+        <v>0.9984377172982769</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.015452694973948</v>
+        <v>0.9493847056070746</v>
       </c>
       <c r="D21">
-        <v>1.023800825016871</v>
+        <v>0.9665767334665981</v>
       </c>
       <c r="E21">
-        <v>1.017163158317031</v>
+        <v>0.9640876082771814</v>
       </c>
       <c r="F21">
-        <v>1.03005171586077</v>
+        <v>0.9644915290017575</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.022189959819832</v>
+        <v>0.9811624047314861</v>
       </c>
       <c r="K21">
-        <v>1.027426963211209</v>
+        <v>0.982220247070132</v>
       </c>
       <c r="L21">
-        <v>1.020814839808249</v>
+        <v>0.9797828617027603</v>
       </c>
       <c r="M21">
-        <v>1.033654132711969</v>
+        <v>0.9801783624024613</v>
       </c>
       <c r="N21">
-        <v>1.011344017163625</v>
+        <v>0.996917958477435</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.014657562323476</v>
+        <v>0.9450420451654916</v>
       </c>
       <c r="D22">
-        <v>1.023068769509993</v>
+        <v>0.9628453420562837</v>
       </c>
       <c r="E22">
-        <v>1.016485985348941</v>
+        <v>0.9606402987854505</v>
       </c>
       <c r="F22">
-        <v>1.029204425698047</v>
+        <v>0.9602103119055566</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.021651124695448</v>
+        <v>0.9783993661549295</v>
       </c>
       <c r="K22">
-        <v>1.026828566936166</v>
+        <v>0.9791906081511652</v>
       </c>
       <c r="L22">
-        <v>1.020272132494018</v>
+        <v>0.9770339918731322</v>
       </c>
       <c r="M22">
-        <v>1.032940000555417</v>
+        <v>0.9766134828012202</v>
       </c>
       <c r="N22">
-        <v>1.011157777683048</v>
+        <v>0.9959359571153864</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.015079025937757</v>
+        <v>0.9473556271784233</v>
       </c>
       <c r="D23">
-        <v>1.02345676305327</v>
+        <v>0.9648322966144413</v>
       </c>
       <c r="E23">
-        <v>1.01684488885698</v>
+        <v>0.9624758074414901</v>
       </c>
       <c r="F23">
-        <v>1.029653475863673</v>
+        <v>0.9624901282506712</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.021936768466199</v>
+        <v>0.9798712461005089</v>
       </c>
       <c r="K23">
-        <v>1.027145765510301</v>
+        <v>0.9808043388524867</v>
       </c>
       <c r="L23">
-        <v>1.020559815364791</v>
+        <v>0.9784981235371294</v>
       </c>
       <c r="M23">
-        <v>1.033318517473021</v>
+        <v>0.9785121378374964</v>
       </c>
       <c r="N23">
-        <v>1.011256528631875</v>
+        <v>0.9964591330809283</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.016739431421465</v>
+        <v>0.9562180246232241</v>
       </c>
       <c r="D24">
-        <v>1.024986098541521</v>
+        <v>0.9724640221911022</v>
       </c>
       <c r="E24">
-        <v>1.018259604089706</v>
+        <v>0.96952945108323</v>
       </c>
       <c r="F24">
-        <v>1.031423885157302</v>
+        <v>0.971245185599626</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.023061388004713</v>
+        <v>0.9855122055314846</v>
       </c>
       <c r="K24">
-        <v>1.028395050214526</v>
+        <v>0.9869925948507323</v>
       </c>
       <c r="L24">
-        <v>1.021692763904883</v>
+        <v>0.9841136621107063</v>
       </c>
       <c r="M24">
-        <v>1.034809993758544</v>
+        <v>0.9857968135783309</v>
       </c>
       <c r="N24">
-        <v>1.01164481636003</v>
+        <v>0.9984627668121145</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.018668642350705</v>
+        <v>0.9660405238700766</v>
       </c>
       <c r="D25">
-        <v>1.026764631418412</v>
+        <v>0.9809608956940089</v>
       </c>
       <c r="E25">
-        <v>1.019904919118999</v>
+        <v>0.9773891125394345</v>
       </c>
       <c r="F25">
-        <v>1.033483633225869</v>
+        <v>0.9809910620619162</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.02436659444327</v>
+        <v>0.9917674159135295</v>
       </c>
       <c r="K25">
-        <v>1.029845829691816</v>
+        <v>0.9938621390658113</v>
       </c>
       <c r="L25">
-        <v>1.023008254574207</v>
+        <v>0.9903488768430063</v>
       </c>
       <c r="M25">
-        <v>1.036543460030293</v>
+        <v>0.9938918135127982</v>
       </c>
       <c r="N25">
-        <v>1.012094393749036</v>
+        <v>1.000680980906285</v>
       </c>
     </row>
   </sheetData>
